--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5326,6 +5326,56 @@
         <v>0</v>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>44986.45833333334</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>ECONOMICS:QAM2</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>704618000000</v>
+      </c>
+      <c r="D196" t="n">
+        <v>704618000000</v>
+      </c>
+      <c r="E196" t="n">
+        <v>704618000000</v>
+      </c>
+      <c r="F196" t="n">
+        <v>704618000000</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>ECONOMICS:QAM2</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>696270000000</v>
+      </c>
+      <c r="D197" t="n">
+        <v>696270000000</v>
+      </c>
+      <c r="E197" t="n">
+        <v>696270000000</v>
+      </c>
+      <c r="F197" t="n">
+        <v>696270000000</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5376,6 +5376,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45047.41666666666</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>ECONOMICS:QAM2</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>699178000000</v>
+      </c>
+      <c r="D198" t="n">
+        <v>699178000000</v>
+      </c>
+      <c r="E198" t="n">
+        <v>699178000000</v>
+      </c>
+      <c r="F198" t="n">
+        <v>699178000000</v>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G198"/>
+  <dimension ref="A1:G199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5401,6 +5401,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45078.41666666666</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>ECONOMICS:QAM2</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>699090000000</v>
+      </c>
+      <c r="D199" t="n">
+        <v>699090000000</v>
+      </c>
+      <c r="E199" t="n">
+        <v>699090000000</v>
+      </c>
+      <c r="F199" t="n">
+        <v>699090000000</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G199"/>
+  <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5426,6 +5426,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45108.41666666666</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>ECONOMICS:QAM2</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>683929000000</v>
+      </c>
+      <c r="D200" t="n">
+        <v>683929000000</v>
+      </c>
+      <c r="E200" t="n">
+        <v>683929000000</v>
+      </c>
+      <c r="F200" t="n">
+        <v>683929000000</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G200"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4086,16 +4086,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>562328300000</v>
+        <v>562328000000</v>
       </c>
       <c r="D146" t="n">
-        <v>562328300000</v>
+        <v>562328000000</v>
       </c>
       <c r="E146" t="n">
-        <v>562328300000</v>
+        <v>562328000000</v>
       </c>
       <c r="F146" t="n">
-        <v>562328300000</v>
+        <v>562328000000</v>
       </c>
       <c r="G146" t="n">
         <v>0</v>
@@ -4161,16 +4161,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>557944300000</v>
+        <v>557944000000</v>
       </c>
       <c r="D149" t="n">
-        <v>557944300000</v>
+        <v>557944000000</v>
       </c>
       <c r="E149" t="n">
-        <v>557944300000</v>
+        <v>557944000000</v>
       </c>
       <c r="F149" t="n">
-        <v>557944300000</v>
+        <v>557944000000</v>
       </c>
       <c r="G149" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>554910700000</v>
+        <v>554911000000</v>
       </c>
       <c r="D150" t="n">
-        <v>554910700000</v>
+        <v>554911000000</v>
       </c>
       <c r="E150" t="n">
-        <v>554910700000</v>
+        <v>554911000000</v>
       </c>
       <c r="F150" t="n">
-        <v>554910700000</v>
+        <v>554911000000</v>
       </c>
       <c r="G150" t="n">
         <v>0</v>
@@ -4236,16 +4236,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>554032700000</v>
+        <v>554033000000</v>
       </c>
       <c r="D152" t="n">
-        <v>554032700000</v>
+        <v>554033000000</v>
       </c>
       <c r="E152" t="n">
-        <v>554032700000</v>
+        <v>554033000000</v>
       </c>
       <c r="F152" t="n">
-        <v>554032700000</v>
+        <v>554033000000</v>
       </c>
       <c r="G152" t="n">
         <v>0</v>
@@ -4261,16 +4261,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>551532100000</v>
+        <v>551532000000</v>
       </c>
       <c r="D153" t="n">
-        <v>551532100000</v>
+        <v>551532000000</v>
       </c>
       <c r="E153" t="n">
-        <v>551532100000</v>
+        <v>551532000000</v>
       </c>
       <c r="F153" t="n">
-        <v>551532100000</v>
+        <v>551532000000</v>
       </c>
       <c r="G153" t="n">
         <v>0</v>
@@ -5436,18 +5436,68 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>683929000000</v>
+        <v>683766000000</v>
       </c>
       <c r="D200" t="n">
-        <v>683929000000</v>
+        <v>683766000000</v>
       </c>
       <c r="E200" t="n">
-        <v>683929000000</v>
+        <v>683766000000</v>
       </c>
       <c r="F200" t="n">
-        <v>683929000000</v>
+        <v>683766000000</v>
       </c>
       <c r="G200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45139.41666666666</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>ECONOMICS:QAM2</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>685009000000</v>
+      </c>
+      <c r="D201" t="n">
+        <v>685009000000</v>
+      </c>
+      <c r="E201" t="n">
+        <v>685009000000</v>
+      </c>
+      <c r="F201" t="n">
+        <v>685009000000</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45170.41666666666</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>ECONOMICS:QAM2</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>702188000000</v>
+      </c>
+      <c r="D202" t="n">
+        <v>702188000000</v>
+      </c>
+      <c r="E202" t="n">
+        <v>702188000000</v>
+      </c>
+      <c r="F202" t="n">
+        <v>702188000000</v>
+      </c>
+      <c r="G202" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/M2_Data/Qatar_M2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5053,6 +5053,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="2">
+        <v>45200.45833333334</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>721283000000</v>
+      </c>
+      <c r="D203">
+        <v>721283000000</v>
+      </c>
+      <c r="E203">
+        <v>721283000000</v>
+      </c>
+      <c r="F203">
+        <v>721283000000</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
